--- a/models/jsonld/redundancies-identified-and-removed.xlsx
+++ b/models/jsonld/redundancies-identified-and-removed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/jsonld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0B04C5-84D0-6643-9235-F56B5867344B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE64A3-6CB4-CC44-8F86-A121457B407A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="2" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
+    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes_v2" sheetId="5" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="786">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2386,6 +2386,9 @@
   </si>
   <si>
     <t>isMemberOfAnimalGroup</t>
+  </si>
+  <si>
+    <t>FarmAnimal</t>
   </si>
 </sst>
 </file>
@@ -2774,8 +2777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2935,7 +2938,7 @@
         <v>452</v>
       </c>
       <c r="C8" t="s">
-        <v>665</v>
+        <v>785</v>
       </c>
       <c r="D8" t="s">
         <v>705</v>
@@ -3363,7 +3366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64733C-6E56-4049-9A39-9CE332801E8E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>

--- a/models/jsonld/redundancies-identified-and-removed.xlsx
+++ b/models/jsonld/redundancies-identified-and-removed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/jsonld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CE64A3-6CB4-CC44-8F86-A121457B407A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F61928-88E2-F44D-AD3D-56B00450F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4026" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="789">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2389,6 +2389,15 @@
   </si>
   <si>
     <t>FarmAnimal</t>
+  </si>
+  <si>
+    <t>typeName</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/ssn/Property</t>
+  </si>
+  <si>
+    <t>ssn.Property</t>
   </si>
 </sst>
 </file>
@@ -2775,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3096,6 +3105,14 @@
         <v>766</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>787</v>
+      </c>
+      <c r="C17" t="s">
+        <v>788</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3103,10 +3120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4A8733-A83C-1044-A18C-1ED63564F848}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3356,6 +3373,14 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="C16" t="s">
+        <v>786</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/jsonld/redundancies-identified-and-removed.xlsx
+++ b/models/jsonld/redundancies-identified-and-removed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/jsonld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F61928-88E2-F44D-AD3D-56B00450F509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5A206-4C0C-DF4C-B058-3B5953A4B937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
+    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="2" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes_v2" sheetId="5" r:id="rId1"/>
@@ -26,12 +26,20 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4030" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="793">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2103,12 +2111,6 @@
     <t>schema.Person</t>
   </si>
   <si>
-    <t>&lt;http://foodie-cloud.com/model/foodie#Alert&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#Alert&gt;</t>
-  </si>
-  <si>
     <t>&lt;http://www.opengis.net/ont/geosparql#Geometry&gt;</t>
   </si>
   <si>
@@ -2136,18 +2138,9 @@
     <t>&lt;http://purl.oclc.org/NET/ssnx/qu/dim#Temperature&gt;</t>
   </si>
   <si>
-    <t>&lt;https://w3id.org/saref#Temperature&gt;</t>
-  </si>
-  <si>
     <t>&lt;http://www.w3.org/ns/sosa/FeatureOfInterest&gt;</t>
   </si>
   <si>
-    <t>&lt;https://w3id.org/saref#FeatureOfInterest&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#Animal&gt;</t>
-  </si>
-  <si>
     <t>&lt;https://w3id.org/def/saref4agri#Animal&gt;</t>
   </si>
   <si>
@@ -2172,9 +2165,6 @@
     <t>rdf:Property</t>
   </si>
   <si>
-    <t>&lt;https://w3id.org/saref#Property&gt;</t>
-  </si>
-  <si>
     <t>&lt;http://www.w3.org/ns/ssn/Property&gt;</t>
   </si>
   <si>
@@ -2202,202 +2192,232 @@
     <t>saref.Property</t>
   </si>
   <si>
+    <t>&lt;http://portele.de/ont/inspire/baseInspire#validFrom&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://portele.de/ont/inspire/baseInspire#validTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#species&gt;</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#status&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.oclc.org/NET/ssnx/qu/quantity#temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.org/dc/terms/description&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://schema.org/name&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://xmlns.com/foaf/0.1/name&gt;</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>annotationproperties</t>
+  </si>
+  <si>
+    <t>Not in context</t>
+  </si>
+  <si>
+    <t>dct.description</t>
+  </si>
+  <si>
+    <t>&lt;http://inspire.ec.europa.eu/schemas/af/3.0#contains&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/2003/01/geo/wgs84_pos#location&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/ssn/hasProperty&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/hasFeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>hasFeatureOfInterest</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/isFeatureOfInterestOf&gt;</t>
+  </si>
+  <si>
+    <t>isFeatureOfInterestOf</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/ssn/isPropertyOf&gt;</t>
+  </si>
+  <si>
+    <t>isPropertyOf</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#quantity&gt;</t>
+  </si>
+  <si>
+    <t>objectProperties</t>
+  </si>
+  <si>
+    <t>saref.hasFeatureOfInterest</t>
+  </si>
+  <si>
+    <t>saref.isFeatureOfInterestOf</t>
+  </si>
+  <si>
+    <t>saref.isPropertyOf</t>
+  </si>
+  <si>
+    <t>equiv</t>
+  </si>
+  <si>
+    <t>subprop</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>subclass in</t>
+  </si>
+  <si>
+    <t>totalQuantity</t>
+  </si>
+  <si>
+    <t>QuantityKind</t>
+  </si>
+  <si>
+    <t>Sensor</t>
+  </si>
+  <si>
+    <t>saref.Sensor</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/sosa/Sensor</t>
+  </si>
+  <si>
+    <t>hasMember</t>
+  </si>
+  <si>
+    <t>&lt;http://www.w3.org/ns/sosa/hasMember&gt;</t>
+  </si>
+  <si>
+    <t>isMemberOf</t>
+  </si>
+  <si>
+    <t>hasMemberAnimal</t>
+  </si>
+  <si>
+    <t>isMemberOfAnimalGroup</t>
+  </si>
+  <si>
+    <t>FarmAnimal</t>
+  </si>
+  <si>
+    <t>typeName</t>
+  </si>
+  <si>
+    <t>http://www.w3.org/ns/ssn/Property</t>
+  </si>
+  <si>
+    <t>ssn.Property</t>
+  </si>
+  <si>
+    <t>qu.QuantityKind</t>
+  </si>
+  <si>
+    <t>ngsi-ld:Property</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.etsi.org/ngsi-ld/location&gt;</t>
+  </si>
+  <si>
+    <t>subprop geo:hasGeometry</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/hasValue&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://foodie-cloud.com/model/foodie#type&gt;</t>
+  </si>
+  <si>
+    <t>subprop saref4agri:contains</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/saref4agri/contains&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://smartdatamodels.org/name&gt;</t>
+  </si>
+  <si>
     <t>&lt;http://foodie-cloud.com/model/foodie#description&gt;</t>
   </si>
   <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://portele.de/ont/inspire/baseInspire#validFrom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#validFrom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://portele.de/ont/inspire/baseInspire#validTo&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#validTo&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://foodie-cloud.com/model/foodie#species&gt;</t>
-  </si>
-  <si>
-    <t>species</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#species&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://foodie-cloud.com/model/foodie#status&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#status&gt;</t>
-  </si>
-  <si>
-    <t>descriptionEntity</t>
-  </si>
-  <si>
-    <t>&lt;http://purl.oclc.org/NET/ssnx/qu/quantity#temperature&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#temperature&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://purl.org/dc/terms/description&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://schema.org/name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#name&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://xmlns.com/foaf/0.1/name&gt;</t>
-  </si>
-  <si>
-    <t>individuals</t>
-  </si>
-  <si>
-    <t>annotationproperties</t>
-  </si>
-  <si>
-    <t>Not in context</t>
-  </si>
-  <si>
-    <t>dct.description</t>
-  </si>
-  <si>
-    <t>&lt;http://inspire.ec.europa.eu/schemas/af/3.0#contains&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/def/saref4agri#contains&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://www.w3.org/2003/01/geo/wgs84_pos#location&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#location&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://www.w3.org/ns/ssn/hasProperty&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/saref#hasProperty&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://www.w3.org/ns/sosa/hasFeatureOfInterest&gt;</t>
-  </si>
-  <si>
-    <t>hasFeatureOfInterest</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/saref#hasFeatureOfInterest&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://www.w3.org/ns/sosa/isFeatureOfInterestOf&gt;</t>
-  </si>
-  <si>
-    <t>isFeatureOfInterestOf</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/saref#isFeatureOfInterestOf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://www.w3.org/ns/ssn/isPropertyOf&gt;</t>
-  </si>
-  <si>
-    <t>isPropertyOf</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/saref#isPropertyOf&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://foodie-cloud.com/model/foodie#quantity&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://uri.fiware.org/ns/data-models#quantity&gt;</t>
-  </si>
-  <si>
-    <t>objectProperties</t>
-  </si>
-  <si>
-    <t>saref.hasFeatureOfInterest</t>
-  </si>
-  <si>
-    <t>saref.isFeatureOfInterestOf</t>
-  </si>
-  <si>
-    <t>saref.isPropertyOf</t>
-  </si>
-  <si>
-    <t>equiv</t>
-  </si>
-  <si>
-    <t>subprop</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>subclass in</t>
-  </si>
-  <si>
-    <t>extra special case: ngsi.Property</t>
-  </si>
-  <si>
-    <t>totalQuantity</t>
-  </si>
-  <si>
-    <t>http://qudt.org/schema/qudt/QuantityKind</t>
-  </si>
-  <si>
-    <t>QuantityKind</t>
-  </si>
-  <si>
-    <t>qudt.QuantityKind</t>
-  </si>
-  <si>
-    <t>Sensor</t>
-  </si>
-  <si>
-    <t>saref.Sensor</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/sosa/Sensor</t>
-  </si>
-  <si>
-    <t>hasMember</t>
-  </si>
-  <si>
-    <t>&lt;http://www.w3.org/ns/sosa/hasMember&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/def/saref4agri#hasMember&gt;</t>
-  </si>
-  <si>
-    <t>&lt;https://w3id.org/def/saref4agri#isMemberOf&gt;</t>
-  </si>
-  <si>
-    <t>isMemberOf</t>
-  </si>
-  <si>
-    <t>hasMemberAnimal</t>
-  </si>
-  <si>
-    <t>isMemberOfAnimalGroup</t>
-  </si>
-  <si>
-    <t>FarmAnimal</t>
-  </si>
-  <si>
-    <t>typeName</t>
-  </si>
-  <si>
-    <t>http://www.w3.org/ns/ssn/Property</t>
-  </si>
-  <si>
-    <t>ssn.Property</t>
+    <t>&lt;https://smartdatamodels.org/dataModel.Weather/validFrom&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://smartdatamodels.org/dataModel.Weather/validTo&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://smartdatamodels.org/dataModel.Agrifood/quantity&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://uri.etsi.org/ngsi-ld/status&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/hasProperty&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/Property&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/isFeatureOfInterestOf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/hasFeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/FeatureOfInterest&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/Temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://smartdatamodels.org/dataModel.Weather/temperature&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/isPropertyOf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/core/Sensor&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/saref4agri/isMemberOf&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://saref.etsi.org/saref4agri/hasMember&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://smartdatamodels.org/dataModel.Agrifood/Animal&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://qudt.org/schema/qudt/QuantityKind&gt;</t>
+  </si>
+  <si>
+    <t>&lt;http://purl.oclc.org/NET/ssnx/qu/qu#QuantityKind&gt;</t>
+  </si>
+  <si>
+    <t>&lt;https://smartdatamodels.org/dataModel.Agrifood/species&gt;</t>
   </si>
 </sst>
 </file>
@@ -2442,12 +2462,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2463,12 +2489,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2784,333 +2812,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="46.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.6640625" customWidth="1"/>
     <col min="2" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>690</v>
-      </c>
-      <c r="B2" t="s">
-        <v>450</v>
-      </c>
-      <c r="D2" t="s">
-        <v>691</v>
-      </c>
-      <c r="E2" t="s">
-        <v>450</v>
-      </c>
-      <c r="F2" t="s">
-        <v>664</v>
-      </c>
-      <c r="G2" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>692</v>
-      </c>
-      <c r="B3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D3" t="s">
-        <v>694</v>
-      </c>
-      <c r="E3" t="s">
-        <v>693</v>
-      </c>
-      <c r="F3" t="s">
-        <v>717</v>
-      </c>
-      <c r="G3" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>695</v>
-      </c>
-      <c r="B4" t="s">
-        <v>696</v>
-      </c>
-      <c r="D4" t="s">
-        <v>697</v>
-      </c>
-      <c r="E4" t="s">
-        <v>696</v>
-      </c>
-      <c r="F4" t="s">
-        <v>689</v>
-      </c>
-      <c r="G4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>698</v>
-      </c>
-      <c r="B5" t="s">
-        <v>538</v>
-      </c>
-      <c r="C5" t="s">
-        <v>718</v>
-      </c>
-      <c r="D5" t="s">
-        <v>699</v>
-      </c>
-      <c r="E5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>700</v>
-      </c>
-      <c r="B6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D6" t="s">
-        <v>701</v>
-      </c>
-      <c r="E6" t="s">
-        <v>670</v>
-      </c>
-      <c r="F6" t="s">
-        <v>719</v>
-      </c>
-      <c r="G6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>702</v>
-      </c>
-      <c r="B7" t="s">
-        <v>668</v>
-      </c>
-      <c r="D7" t="s">
-        <v>703</v>
-      </c>
-      <c r="E7" t="s">
-        <v>668</v>
-      </c>
-      <c r="F7" t="s">
-        <v>667</v>
-      </c>
-      <c r="G7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>704</v>
-      </c>
-      <c r="B8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C8" t="s">
-        <v>785</v>
-      </c>
-      <c r="D8" t="s">
-        <v>705</v>
-      </c>
-      <c r="E8" t="s">
-        <v>452</v>
-      </c>
-      <c r="G8" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>706</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="G9" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
         <v>707</v>
       </c>
-      <c r="C9" t="s">
-        <v>720</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B10" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>708</v>
       </c>
-      <c r="E9" t="s">
-        <v>707</v>
-      </c>
-      <c r="G9" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>709</v>
-      </c>
-      <c r="B10" t="s">
-        <v>710</v>
-      </c>
-      <c r="D10" t="s">
-        <v>711</v>
-      </c>
-      <c r="E10" t="s">
-        <v>710</v>
-      </c>
-      <c r="F10" t="s">
-        <v>721</v>
-      </c>
-      <c r="G10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>712</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="E11" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" t="s">
-        <v>713</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="F11" t="s">
-        <v>722</v>
-      </c>
-      <c r="G11" t="s">
-        <v>768</v>
-      </c>
-      <c r="H11" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>712</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>534</v>
       </c>
-      <c r="C12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" t="s">
-        <v>714</v>
-      </c>
-      <c r="E12" t="s">
-        <v>534</v>
-      </c>
-      <c r="G12" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F12" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>714</v>
+        <v>760</v>
       </c>
       <c r="B13" t="s">
         <v>534</v>
       </c>
+      <c r="C13" t="s">
+        <v>761</v>
+      </c>
       <c r="D13" t="s">
-        <v>713</v>
+        <v>763</v>
       </c>
       <c r="E13" t="s">
         <v>534</v>
       </c>
-      <c r="F13" t="s">
-        <v>722</v>
-      </c>
-      <c r="G13" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>772</v>
-      </c>
-      <c r="B14" t="s">
-        <v>773</v>
-      </c>
-      <c r="C14" t="s">
-        <v>774</v>
-      </c>
-      <c r="D14" t="s">
-        <v>484</v>
-      </c>
-      <c r="E14" t="s">
-        <v>773</v>
-      </c>
-      <c r="G14" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>588</v>
-      </c>
-      <c r="B15" t="s">
-        <v>775</v>
-      </c>
-      <c r="C15" t="s">
-        <v>776</v>
-      </c>
-      <c r="D15" t="s">
-        <v>777</v>
-      </c>
-      <c r="E15" t="s">
-        <v>775</v>
-      </c>
-      <c r="G15" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>787</v>
-      </c>
-      <c r="C17" t="s">
-        <v>788</v>
+    </row>
+    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>744</v>
       </c>
     </row>
   </sheetData>
@@ -3120,18 +3143,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A4A8733-A83C-1044-A18C-1ED63564F848}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.1640625" customWidth="1"/>
   </cols>
@@ -3141,245 +3164,244 @@
         <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>723</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B13" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C13" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>724</v>
       </c>
-      <c r="E2" t="s">
-        <v>636</v>
-      </c>
-      <c r="F2" t="s">
-        <v>734</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B14" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>766</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>725</v>
-      </c>
-      <c r="B3" t="s">
-        <v>648</v>
-      </c>
-      <c r="D3" t="s">
-        <v>726</v>
-      </c>
-      <c r="E3" t="s">
-        <v>648</v>
-      </c>
-      <c r="F3" t="s">
-        <v>649</v>
-      </c>
-      <c r="H3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>727</v>
-      </c>
-      <c r="B4" t="s">
-        <v>651</v>
-      </c>
-      <c r="D4" t="s">
-        <v>728</v>
-      </c>
-      <c r="E4" t="s">
-        <v>651</v>
-      </c>
-      <c r="F4" t="s">
-        <v>652</v>
-      </c>
-      <c r="H4" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>729</v>
-      </c>
-      <c r="B5" t="s">
-        <v>730</v>
-      </c>
-      <c r="D5" t="s">
-        <v>731</v>
-      </c>
-      <c r="E5" t="s">
-        <v>730</v>
-      </c>
-      <c r="F5" t="s">
-        <v>635</v>
-      </c>
-      <c r="H5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>732</v>
-      </c>
-      <c r="B6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D6" t="s">
-        <v>733</v>
-      </c>
-      <c r="E6" t="s">
-        <v>637</v>
-      </c>
-      <c r="F6" t="s">
-        <v>654</v>
-      </c>
-      <c r="H6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>760</v>
-      </c>
-      <c r="B8" t="s">
-        <v>662</v>
-      </c>
-      <c r="D8" t="s">
-        <v>761</v>
-      </c>
-      <c r="E8" t="s">
-        <v>662</v>
-      </c>
-      <c r="F8" t="s">
-        <v>771</v>
-      </c>
-      <c r="H8" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>735</v>
-      </c>
-      <c r="B10" t="s">
-        <v>646</v>
-      </c>
-      <c r="C10" t="s">
-        <v>743</v>
-      </c>
-      <c r="D10" t="s">
-        <v>736</v>
-      </c>
-      <c r="E10" t="s">
-        <v>646</v>
-      </c>
-      <c r="H10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>737</v>
-      </c>
-      <c r="B12" t="s">
-        <v>636</v>
-      </c>
-      <c r="C12" t="s">
-        <v>744</v>
-      </c>
-      <c r="D12" t="s">
-        <v>724</v>
-      </c>
-      <c r="E12" t="s">
-        <v>636</v>
-      </c>
-      <c r="F12" t="s">
-        <v>734</v>
-      </c>
-      <c r="H12" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>738</v>
-      </c>
-      <c r="B13" t="s">
-        <v>676</v>
-      </c>
-      <c r="C13" t="s">
-        <v>684</v>
-      </c>
-      <c r="D13" t="s">
-        <v>739</v>
-      </c>
-      <c r="E13" t="s">
-        <v>676</v>
-      </c>
-      <c r="H13" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>740</v>
-      </c>
-      <c r="B14" t="s">
-        <v>676</v>
-      </c>
-      <c r="C14" t="s">
-        <v>685</v>
-      </c>
-      <c r="D14" t="s">
-        <v>739</v>
-      </c>
-      <c r="E14" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>184</v>
-      </c>
-      <c r="C16" t="s">
-        <v>786</v>
       </c>
     </row>
   </sheetData>
@@ -3391,8 +3413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64733C-6E56-4049-9A39-9CE332801E8E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3400,7 +3422,7 @@
     <col min="1" max="1" width="49.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -3410,167 +3432,167 @@
         <v>191</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>191</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>745</v>
-      </c>
-      <c r="B2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>656</v>
       </c>
-      <c r="D2" t="s">
-        <v>746</v>
-      </c>
-      <c r="E2" t="s">
-        <v>657</v>
-      </c>
-      <c r="H2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>747</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H2" s="6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D3" t="s">
-        <v>748</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="H3" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>749</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="H3" s="5" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="D4" t="s">
-        <v>750</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>659</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="H4" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>751</v>
-      </c>
-      <c r="B5" t="s">
-        <v>752</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="H4" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="E5" t="s">
-        <v>752</v>
-      </c>
-      <c r="F5" t="s">
-        <v>763</v>
-      </c>
-      <c r="H5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>754</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E8" s="6" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>755</v>
       </c>
-      <c r="D6" t="s">
-        <v>756</v>
-      </c>
-      <c r="E6" t="s">
-        <v>755</v>
-      </c>
-      <c r="F6" t="s">
-        <v>764</v>
-      </c>
-      <c r="H6" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C9" s="6" t="s">
         <v>757</v>
-      </c>
-      <c r="B7" t="s">
-        <v>758</v>
-      </c>
-      <c r="D7" t="s">
-        <v>759</v>
-      </c>
-      <c r="E7" t="s">
-        <v>758</v>
-      </c>
-      <c r="F7" t="s">
-        <v>765</v>
-      </c>
-      <c r="H7" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>780</v>
-      </c>
-      <c r="B8" t="s">
-        <v>778</v>
-      </c>
-      <c r="C8" t="s">
-        <v>783</v>
-      </c>
-      <c r="D8" t="s">
-        <v>779</v>
-      </c>
-      <c r="E8" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>781</v>
-      </c>
-      <c r="B9" t="s">
-        <v>782</v>
-      </c>
-      <c r="C9" t="s">
-        <v>784</v>
       </c>
     </row>
   </sheetData>
@@ -25617,7 +25639,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F6D97-64C7-8945-8FA5-105CA5DD9C91}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/models/jsonld/redundancies-identified-and-removed.xlsx
+++ b/models/jsonld/redundancies-identified-and-removed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rap/GitRepositories/GitHub/DEMETER/models/jsonld/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B5A206-4C0C-DF4C-B058-3B5953A4B937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA4A19B-33EC-9E48-9509-BA7E8C1D27C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" activeTab="2" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
+    <workbookView xWindow="2380" yWindow="2960" windowWidth="26040" windowHeight="14540" xr2:uid="{4E7EF15A-308C-654F-BE72-EC858B7BEAD8}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes_v2" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4028" uniqueCount="792">
   <si>
     <t>https://uri.fiware.org/ns/data-models#status</t>
   </si>
@@ -2196,9 +2196,6 @@
   </si>
   <si>
     <t>&lt;http://portele.de/ont/inspire/baseInspire#validTo&gt;</t>
-  </si>
-  <si>
-    <t>&lt;http://foodie-cloud.com/model/foodie#species&gt;</t>
   </si>
   <si>
     <t>species</t>
@@ -2495,8 +2492,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2814,8 +2811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15197C61-0C48-7940-A8EE-8D641CF5F3DB}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2847,293 +2844,293 @@
         <v>709</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="G2" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="G3" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>713</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>788</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>714</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="10" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>762</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>703</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>715</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>707</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F11" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="G11" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>760</v>
-      </c>
-      <c r="B13" t="s">
-        <v>534</v>
-      </c>
-      <c r="C13" t="s">
-        <v>761</v>
-      </c>
-      <c r="D13" t="s">
-        <v>763</v>
-      </c>
-      <c r="E13" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="B14" s="6" t="s">
+      <c r="G14" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>752</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>744</v>
+      <c r="G15" s="5" t="s">
+        <v>743</v>
       </c>
     </row>
   </sheetData>
@@ -3146,7 +3143,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3179,220 +3176,220 @@
         <v>709</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="H2" s="6" t="s">
+      <c r="E3" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>775</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="H5" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>766</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="B9" s="6" t="s">
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>776</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="5" t="s">
+        <v>775</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>748</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>746</v>
+      <c r="F9" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="B11" s="6" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>728</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="C11" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>746</v>
+      <c r="H11" s="5" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>684</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>676</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>676</v>
       </c>
     </row>
@@ -3401,10 +3398,13 @@
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" location="species" xr:uid="{4C1003EA-CC4E-D145-AFDC-0B63C6DE6A88}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3413,7 +3413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB64733C-6E56-4049-9A39-9CE332801E8E}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3447,35 +3447,35 @@
         <v>709</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>770</v>
+      <c r="H2" s="5" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>661</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>661</v>
@@ -3484,115 +3484,115 @@
         <v>678</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>659</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="D5" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>734</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B6" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>779</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="H5" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="H6" s="5" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="B7" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="H6" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>737</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="H7" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>788</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    </row>
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>752</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="E8" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>756</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>757</v>
       </c>
     </row>
   </sheetData>
@@ -25639,9 +25639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A66F6D97-64C7-8945-8FA5-105CA5DD9C91}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
